--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhta\OneDrive\Desktop\Temp\3 Дипломный проект по профессии «Инженер по тестированию»\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55717052-2AE9-4151-BEE5-5AE4A4D29075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A60C67D-F137-4A93-A0F4-2C74ADF015CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -44,15 +44,9 @@
     <t>Вход с невалидными учетными данными</t>
   </si>
   <si>
-    <t>Вход с пустым логином</t>
-  </si>
-  <si>
     <t>Средний</t>
   </si>
   <si>
-    <t>Вход с пустым паролем</t>
-  </si>
-  <si>
     <t>Вход с пустыми полями (логин и пароль)</t>
   </si>
   <si>
@@ -71,101 +65,119 @@
     <t>Сворачивание новости (collapse)</t>
   </si>
   <si>
-    <t>Заявки</t>
-  </si>
-  <si>
-    <t>Отображение списка всех заявок</t>
-  </si>
-  <si>
-    <t>Открытие детальной информации о заявке</t>
-  </si>
-  <si>
-    <t>Создание новой заявки</t>
-  </si>
-  <si>
-    <t>Попытка редактирования заявки со статусом "В работе"</t>
-  </si>
-  <si>
-    <t>Попытка редактирования заявки со статусом "Выполнена"</t>
-  </si>
-  <si>
-    <t>Изменение статуса заявки с "Открыта" на "В работе"</t>
-  </si>
-  <si>
-    <t>Изменение статуса заявки с "В работе" на "Выполнена"</t>
-  </si>
-  <si>
-    <t>Отмена изменения статуса заявки</t>
-  </si>
-  <si>
-    <t>Фильтрация заявок по статусу "Открыта"</t>
-  </si>
-  <si>
-    <t>Фильтрация заявок по статусу "В работе"</t>
-  </si>
-  <si>
-    <t>Фильтрация заявок по статусу "Выполнена"</t>
-  </si>
-  <si>
-    <t>Отображение пустого списка заявок</t>
-  </si>
-  <si>
-    <t>Комментарии</t>
-  </si>
-  <si>
-    <t>Просмотр списка комментариев к заявке</t>
-  </si>
-  <si>
-    <t>Добавление комментария к заявке</t>
-  </si>
-  <si>
-    <t>Сохранение комментария</t>
-  </si>
-  <si>
-    <t>Отмена добавления комментария</t>
-  </si>
-  <si>
     <t>О приложении</t>
   </si>
   <si>
     <t>Открытие раздела "О приложении"</t>
   </si>
   <si>
-    <t>Отображение версии приложения</t>
-  </si>
-  <si>
-    <t>Отображение информации о компании (© Айтеко, 2022)</t>
-  </si>
-  <si>
     <t>Переход по ссылке "Политика конфиденциальности"</t>
   </si>
   <si>
     <t>Переход по ссылке "Пользовательское соглашение"</t>
   </si>
   <si>
-    <t>Возврат из раздела "О приложении"</t>
-  </si>
-  <si>
-    <t>UI/UX</t>
-  </si>
-  <si>
-    <t>Отображение заголовка приложения "Первый Московский ХОСПИС"</t>
-  </si>
-  <si>
-    <t>Отображение иконки профиля/авторизации</t>
-  </si>
-  <si>
-    <t>Корректное отображение всех элементов на разных ориентациях экрана</t>
-  </si>
-  <si>
-    <t>Отображение индикатора загрузки при обновлении данных</t>
+    <t>Отображение пустого списка новостей</t>
+  </si>
+  <si>
+    <t>Переход на вкладку "Новости" из главного меню</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей</t>
+  </si>
+  <si>
+    <t>Фильтрация по категории</t>
+  </si>
+  <si>
+    <t>Фильтрация по дате (период)</t>
+  </si>
+  <si>
+    <t>Сброс фильтров</t>
+  </si>
+  <si>
+    <t>Открытие формы фильтрации</t>
+  </si>
+  <si>
+    <t>Переход в панель управления новостями</t>
+  </si>
+  <si>
+    <t>Создание новости с валидными данными</t>
+  </si>
+  <si>
+    <t>Создание новости с пустым заголовком</t>
+  </si>
+  <si>
+    <t>Создание новости с пустым описанием</t>
+  </si>
+  <si>
+    <t>Создание новости без выбора категории</t>
+  </si>
+  <si>
+    <t>Создание новости с датой в прошлом</t>
+  </si>
+  <si>
+    <t>Редактирование существующей новости</t>
+  </si>
+  <si>
+    <t>Отмена редактирования новости</t>
+  </si>
+  <si>
+    <t>Удаление новости</t>
+  </si>
+  <si>
+    <t>Изменение статуса на "Активна"</t>
+  </si>
+  <si>
+    <t>Изменение статуса на "Неактивна"</t>
+  </si>
+  <si>
+    <t>Отображение информации о приложении</t>
+  </si>
+  <si>
+    <t>Отображение заголовка миссии</t>
+  </si>
+  <si>
+    <t>Просмотр списка цитат</t>
+  </si>
+  <si>
+    <t>Раскрытие цитаты</t>
+  </si>
+  <si>
+    <t>Сворачивание цитаты</t>
+  </si>
+  <si>
+    <t>Навигация</t>
+  </si>
+  <si>
+    <t>Открытие главного меню</t>
+  </si>
+  <si>
+    <t>Переключение между разделами меню</t>
+  </si>
+  <si>
+    <t>Открытие меню пользователя</t>
+  </si>
+  <si>
+    <t>Выход из системы</t>
+  </si>
+  <si>
+    <t>Возврат на главный экран после авторизации</t>
+  </si>
+  <si>
+    <t>Управление новостями</t>
+  </si>
+  <si>
+    <t>Цитаты</t>
+  </si>
+  <si>
+    <t>Открытие раздела "Цитаты"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -181,6 +193,22 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -288,28 +316,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,10 +573,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -542,29 +587,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
@@ -573,314 +618,359 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="13" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="B25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>11</v>
-      </c>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A21"/>
-    <mergeCell ref="A22:A25"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A38"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -917,97 +1007,97 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
